--- a/Code/Results/Cases/Case_1_242/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_242/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.85374332694443</v>
+        <v>6.735136143199226</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>18.85935034191169</v>
+        <v>9.853326502059996</v>
       </c>
       <c r="E2">
-        <v>23.20842649121212</v>
+        <v>12.11410413106104</v>
       </c>
       <c r="F2">
-        <v>108.5141137474895</v>
+        <v>55.15619820398764</v>
       </c>
       <c r="G2">
-        <v>1.651168449490265</v>
+        <v>3.593823875372472</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.842268159816454</v>
+        <v>17.47672228846301</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>56.23194627596475</v>
+        <v>28.55940843364026</v>
       </c>
       <c r="N2">
-        <v>10.93471200786679</v>
+        <v>16.62578978118533</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.4021756257379</v>
+        <v>6.577139174698647</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>16.52866683480775</v>
+        <v>9.495519704873601</v>
       </c>
       <c r="E3">
-        <v>20.75937963966754</v>
+        <v>11.50768105689166</v>
       </c>
       <c r="F3">
-        <v>95.51554594762422</v>
+        <v>52.75479987883801</v>
       </c>
       <c r="G3">
-        <v>1.738591737063471</v>
+        <v>3.606669334312419</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.53931433597568</v>
+        <v>17.60447137574947</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>50.11073805992217</v>
+        <v>27.2928102456399</v>
       </c>
       <c r="N3">
-        <v>11.31579723188577</v>
+        <v>16.67677300261363</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.10385266087107</v>
+        <v>6.478769257173619</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>15.27960742141526</v>
+        <v>9.275604784538192</v>
       </c>
       <c r="E4">
-        <v>19.44424084326744</v>
+        <v>11.11854256644482</v>
       </c>
       <c r="F4">
-        <v>88.51197753445626</v>
+        <v>51.25961235452363</v>
       </c>
       <c r="G4">
-        <v>1.782974850685954</v>
+        <v>3.614880172519094</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.91619406071803</v>
+        <v>17.68652627781072</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>46.72586414708437</v>
+        <v>26.49777230193483</v>
       </c>
       <c r="N4">
-        <v>11.50962586254376</v>
+        <v>16.71026101229107</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.977502098026289</v>
+        <v>6.438395636854663</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>14.79252413339793</v>
+        <v>9.18607387443479</v>
       </c>
       <c r="E5">
-        <v>18.92969232103538</v>
+        <v>10.95583054637351</v>
       </c>
       <c r="F5">
-        <v>85.77627695228142</v>
+        <v>50.6460683884268</v>
       </c>
       <c r="G5">
-        <v>1.799819690307178</v>
+        <v>3.618308622659099</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.06327372856034</v>
+        <v>17.72088030593627</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>45.3869005615242</v>
+        <v>26.16990630958212</v>
       </c>
       <c r="N5">
-        <v>11.58350236181934</v>
+        <v>16.72446108416407</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.956241569123699</v>
+        <v>6.431675937607436</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>14.71257488450424</v>
+        <v>9.171216862872042</v>
       </c>
       <c r="E6">
-        <v>18.84512335559989</v>
+        <v>10.92856553836618</v>
       </c>
       <c r="F6">
-        <v>85.3270586090937</v>
+        <v>50.54396401280863</v>
       </c>
       <c r="G6">
-        <v>1.80255986542959</v>
+        <v>3.618882925933351</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.08740886361397</v>
+        <v>17.72664028076113</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>45.1661193540676</v>
+        <v>26.11524518040367</v>
       </c>
       <c r="N6">
-        <v>11.5955424938604</v>
+        <v>16.7268525437938</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.102167596106433</v>
+        <v>6.478225852629073</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>15.27296872169661</v>
+        <v>9.274396796252089</v>
       </c>
       <c r="E7">
-        <v>19.43723525995623</v>
+        <v>11.11636478766642</v>
       </c>
       <c r="F7">
-        <v>88.47470563317361</v>
+        <v>51.25135370721622</v>
       </c>
       <c r="G7">
-        <v>1.783206178300241</v>
+        <v>3.614926074485251</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.91819886110935</v>
+        <v>17.68698587075284</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>46.7076857372279</v>
+        <v>26.49336562457787</v>
       </c>
       <c r="N7">
-        <v>11.51063892483655</v>
+        <v>16.71045027302651</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.702902632844463</v>
+        <v>6.680972866910538</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>17.99516985586483</v>
+        <v>9.730082215000845</v>
       </c>
       <c r="E8">
-        <v>22.2996354870375</v>
+        <v>11.90854149275889</v>
       </c>
       <c r="F8">
-        <v>103.7075117851395</v>
+        <v>54.33304253429402</v>
       </c>
       <c r="G8">
-        <v>1.684287532383851</v>
+        <v>3.598186469094532</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.0992630660776</v>
+        <v>17.52002360390755</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>53.99280263754959</v>
+        <v>28.1265531251949</v>
       </c>
       <c r="N8">
-        <v>11.0792321791897</v>
+        <v>16.64291804967674</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.702902632844463</v>
+        <v>7.065511738474994</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.99516985586483</v>
+        <v>10.61626551228617</v>
       </c>
       <c r="E9">
-        <v>22.2996354870375</v>
+        <v>13.32582650945784</v>
       </c>
       <c r="F9">
-        <v>103.7075117851395</v>
+        <v>60.17500217303715</v>
       </c>
       <c r="G9">
-        <v>1.684287532383851</v>
+        <v>3.567877998032225</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10.0992630660776</v>
+        <v>17.22099864204126</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>53.99280263754959</v>
+        <v>31.17367061725379</v>
       </c>
       <c r="N9">
-        <v>11.0792321791897</v>
+        <v>16.52762441166351</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.702902632844463</v>
+        <v>7.337259030961415</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.99516985586483</v>
+        <v>11.25610178676127</v>
       </c>
       <c r="E10">
-        <v>22.2996354870375</v>
+        <v>14.28128078406007</v>
       </c>
       <c r="F10">
-        <v>103.7075117851395</v>
+        <v>64.3029134886602</v>
       </c>
       <c r="G10">
-        <v>1.684287532383851</v>
+        <v>3.547072620772043</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.0992630660776</v>
+        <v>17.01817015192901</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>53.99280263754959</v>
+        <v>33.29757803383404</v>
       </c>
       <c r="N10">
-        <v>11.0792321791897</v>
+        <v>16.45309327540301</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.702902632844463</v>
+        <v>7.458011726469839</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.99516985586483</v>
+        <v>11.54357482548543</v>
       </c>
       <c r="E11">
-        <v>22.2996354870375</v>
+        <v>14.69697741251307</v>
       </c>
       <c r="F11">
-        <v>103.7075117851395</v>
+        <v>66.13848210952544</v>
       </c>
       <c r="G11">
-        <v>1.684287532383851</v>
+        <v>3.537908646372871</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.0992630660776</v>
+        <v>16.92946146060132</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>53.99280263754959</v>
+        <v>34.23570583817392</v>
       </c>
       <c r="N11">
-        <v>11.0792321791897</v>
+        <v>16.42133566478197</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.702902632844463</v>
+        <v>7.503285426557074</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.99516985586483</v>
+        <v>11.6518370514433</v>
       </c>
       <c r="E12">
-        <v>22.2996354870375</v>
+        <v>14.85165264538756</v>
       </c>
       <c r="F12">
-        <v>103.7075117851395</v>
+        <v>66.82705934091932</v>
       </c>
       <c r="G12">
-        <v>1.684287532383851</v>
+        <v>3.53448028867665</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.0992630660776</v>
+        <v>16.89637339110338</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>53.99280263754959</v>
+        <v>34.58671466592187</v>
       </c>
       <c r="N12">
-        <v>11.0792321791897</v>
+        <v>16.40961344819153</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.702902632844463</v>
+        <v>7.49355567061288</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.99516985586483</v>
+        <v>11.62854857802216</v>
       </c>
       <c r="E13">
-        <v>22.2996354870375</v>
+        <v>14.81846258690563</v>
       </c>
       <c r="F13">
-        <v>103.7075117851395</v>
+        <v>66.67905764249851</v>
       </c>
       <c r="G13">
-        <v>1.684287532383851</v>
+        <v>3.53521680846824</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.0992630660776</v>
+        <v>16.90347721100795</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>53.99280263754959</v>
+        <v>34.51131005237062</v>
       </c>
       <c r="N13">
-        <v>11.0792321791897</v>
+        <v>16.41212461216806</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.702902632844463</v>
+        <v>7.461745714754129</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.99516985586483</v>
+        <v>11.5524940197542</v>
       </c>
       <c r="E14">
-        <v>22.2996354870375</v>
+        <v>14.70975761021141</v>
       </c>
       <c r="F14">
-        <v>103.7075117851395</v>
+        <v>66.19526450496906</v>
       </c>
       <c r="G14">
-        <v>1.684287532383851</v>
+        <v>3.537625762846044</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.0992630660776</v>
+        <v>16.92672923018505</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>53.99280263754959</v>
+        <v>34.26466955410903</v>
       </c>
       <c r="N14">
-        <v>11.0792321791897</v>
+        <v>16.42036521381437</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.702902632844463</v>
+        <v>7.4422010935122</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.99516985586483</v>
+        <v>11.5058283944099</v>
       </c>
       <c r="E15">
-        <v>22.2996354870375</v>
+        <v>14.64281552262175</v>
       </c>
       <c r="F15">
-        <v>103.7075117851395</v>
+        <v>65.89806753878172</v>
       </c>
       <c r="G15">
-        <v>1.684287532383851</v>
+        <v>3.539106724103554</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.0992630660776</v>
+        <v>16.9410371612963</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>53.99280263754959</v>
+        <v>34.1130375563018</v>
       </c>
       <c r="N15">
-        <v>11.0792321791897</v>
+        <v>16.42545221870516</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.702902632844463</v>
+        <v>7.329306337525645</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.99516985586483</v>
+        <v>11.23723525120751</v>
       </c>
       <c r="E16">
-        <v>22.2996354870375</v>
+        <v>14.25373125157809</v>
       </c>
       <c r="F16">
-        <v>103.7075117851395</v>
+        <v>64.18206529375638</v>
       </c>
       <c r="G16">
-        <v>1.684287532383851</v>
+        <v>3.547677439044635</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.0992630660776</v>
+        <v>17.02403842971437</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>53.99280263754959</v>
+        <v>33.23568616359744</v>
       </c>
       <c r="N16">
-        <v>11.0792321791897</v>
+        <v>16.45521148662777</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.702902632844463</v>
+        <v>7.259284999942365</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.99516985586483</v>
+        <v>11.07148039565662</v>
       </c>
       <c r="E17">
-        <v>22.2996354870375</v>
+        <v>14.01017424411825</v>
       </c>
       <c r="F17">
-        <v>103.7075117851395</v>
+        <v>63.11819482938965</v>
       </c>
       <c r="G17">
-        <v>1.684287532383851</v>
+        <v>3.553011303348935</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.0992630660776</v>
+        <v>17.07586310484129</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>53.99280263754959</v>
+        <v>32.6901153013173</v>
       </c>
       <c r="N17">
-        <v>11.0792321791897</v>
+        <v>16.47401420232071</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.702902632844463</v>
+        <v>7.218742981528475</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.99516985586483</v>
+        <v>10.97580855055878</v>
       </c>
       <c r="E18">
-        <v>22.2996354870375</v>
+        <v>13.86830387868837</v>
       </c>
       <c r="F18">
-        <v>103.7075117851395</v>
+        <v>62.50232937052888</v>
       </c>
       <c r="G18">
-        <v>1.684287532383851</v>
+        <v>3.556107570696202</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.0992630660776</v>
+        <v>17.10600675966006</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>53.99280263754959</v>
+        <v>32.37368686341707</v>
       </c>
       <c r="N18">
-        <v>11.0792321791897</v>
+        <v>16.48503142212625</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.702902632844463</v>
+        <v>7.204971479393479</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.99516985586483</v>
+        <v>10.94336101609416</v>
       </c>
       <c r="E19">
-        <v>22.2996354870375</v>
+        <v>13.81996344868237</v>
       </c>
       <c r="F19">
-        <v>103.7075117851395</v>
+        <v>62.29314339223452</v>
       </c>
       <c r="G19">
-        <v>1.684287532383851</v>
+        <v>3.55716082690096</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.0992630660776</v>
+        <v>17.11627073404899</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>53.99280263754959</v>
+        <v>32.26610482034211</v>
       </c>
       <c r="N19">
-        <v>11.0792321791897</v>
+        <v>16.48879657536906</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.702902632844463</v>
+        <v>7.266766890134198</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.99516985586483</v>
+        <v>11.089160482255</v>
       </c>
       <c r="E20">
-        <v>22.2996354870375</v>
+        <v>14.03628596270044</v>
       </c>
       <c r="F20">
-        <v>103.7075117851395</v>
+        <v>63.23185847152678</v>
       </c>
       <c r="G20">
-        <v>1.684287532383851</v>
+        <v>3.552440577968235</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.0992630660776</v>
+        <v>17.07031161519268</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>53.99280263754959</v>
+        <v>32.74846612662574</v>
       </c>
       <c r="N20">
-        <v>11.0792321791897</v>
+        <v>16.47199170989357</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.702902632844463</v>
+        <v>7.471101663379328</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.99516985586483</v>
+        <v>11.57484988862825</v>
       </c>
       <c r="E21">
-        <v>22.2996354870375</v>
+        <v>14.74176134236517</v>
       </c>
       <c r="F21">
-        <v>103.7075117851395</v>
+        <v>66.33754610058227</v>
       </c>
       <c r="G21">
-        <v>1.684287532383851</v>
+        <v>3.536917070242279</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.0992630660776</v>
+        <v>16.91988593394156</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>53.99280263754959</v>
+        <v>34.33723035569775</v>
       </c>
       <c r="N21">
-        <v>11.0792321791897</v>
+        <v>16.41793654800123</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.702902632844463</v>
+        <v>7.601990927522116</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.99516985586483</v>
+        <v>11.8887641150229</v>
       </c>
       <c r="E22">
-        <v>22.2996354870375</v>
+        <v>15.18685803725799</v>
       </c>
       <c r="F22">
-        <v>103.7075117851395</v>
+        <v>68.32918712379639</v>
       </c>
       <c r="G22">
-        <v>1.684287532383851</v>
+        <v>3.527014757751439</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.0992630660776</v>
+        <v>16.82450785739352</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>53.99280263754959</v>
+        <v>35.35079925764579</v>
       </c>
       <c r="N22">
-        <v>11.0792321791897</v>
+        <v>16.38437610861151</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.702902632844463</v>
+        <v>7.532388368635984</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.99516985586483</v>
+        <v>11.72156705721774</v>
       </c>
       <c r="E23">
-        <v>22.2996354870375</v>
+        <v>14.9507659345565</v>
       </c>
       <c r="F23">
-        <v>103.7075117851395</v>
+        <v>67.2698204314552</v>
       </c>
       <c r="G23">
-        <v>1.684287532383851</v>
+        <v>3.532278024951452</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.0992630660776</v>
+        <v>16.87514713656668</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>53.99280263754959</v>
+        <v>34.81216360656551</v>
       </c>
       <c r="N23">
-        <v>11.0792321791897</v>
+        <v>16.40212791007716</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.702902632844463</v>
+        <v>7.263385214729968</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.99516985586483</v>
+        <v>11.08116848360901</v>
       </c>
       <c r="E24">
-        <v>22.2996354870375</v>
+        <v>14.0244866039149</v>
       </c>
       <c r="F24">
-        <v>103.7075117851395</v>
+        <v>63.18048428689018</v>
       </c>
       <c r="G24">
-        <v>1.684287532383851</v>
+        <v>3.552698510120899</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.0992630660776</v>
+        <v>17.07282035614775</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>53.99280263754959</v>
+        <v>32.72209433805004</v>
       </c>
       <c r="N24">
-        <v>11.0792321791897</v>
+        <v>16.47290543268505</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.702902632844463</v>
+        <v>6.963183941754723</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.99516985586483</v>
+        <v>10.37806542212703</v>
       </c>
       <c r="E25">
-        <v>22.2996354870375</v>
+        <v>12.95733476459189</v>
       </c>
       <c r="F25">
-        <v>103.7075117851395</v>
+        <v>58.62083300311858</v>
       </c>
       <c r="G25">
-        <v>1.684287532383851</v>
+        <v>3.57581503438299</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>10.0992630660776</v>
+        <v>17.2988985685924</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>53.99280263754959</v>
+        <v>30.36827004104536</v>
       </c>
       <c r="N25">
-        <v>11.0792321791897</v>
+        <v>16.55700742504304</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_242/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_242/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.735136143199226</v>
+        <v>7.85374332694443</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.853326502059996</v>
+        <v>18.85935034191172</v>
       </c>
       <c r="E2">
-        <v>12.11410413106104</v>
+        <v>23.20842649121205</v>
       </c>
       <c r="F2">
-        <v>55.15619820398764</v>
+        <v>108.5141137474892</v>
       </c>
       <c r="G2">
-        <v>3.593823875372472</v>
+        <v>1.651168449490146</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.47672228846301</v>
+        <v>9.842268159816454</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>28.55940843364026</v>
+        <v>56.23194627596464</v>
       </c>
       <c r="N2">
-        <v>16.62578978118533</v>
+        <v>10.93471200786679</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.577139174698647</v>
+        <v>7.402175625737891</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.495519704873601</v>
+        <v>16.5286668348078</v>
       </c>
       <c r="E3">
-        <v>11.50768105689166</v>
+        <v>20.75937963966756</v>
       </c>
       <c r="F3">
-        <v>52.75479987883801</v>
+        <v>95.51554594762437</v>
       </c>
       <c r="G3">
-        <v>3.606669334312419</v>
+        <v>1.738591737063561</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.60447137574947</v>
+        <v>10.53931433597569</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.2928102456399</v>
+        <v>50.11073805992227</v>
       </c>
       <c r="N3">
-        <v>16.67677300261363</v>
+        <v>11.31579723188578</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.478769257173619</v>
+        <v>7.10385266087111</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.275604784538192</v>
+        <v>15.27960742141527</v>
       </c>
       <c r="E4">
-        <v>11.11854256644482</v>
+        <v>19.44424084326747</v>
       </c>
       <c r="F4">
-        <v>51.25961235452363</v>
+        <v>88.51197753445643</v>
       </c>
       <c r="G4">
-        <v>3.614880172519094</v>
+        <v>1.782974850685989</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.68652627781072</v>
+        <v>10.916194060718</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.49777230193483</v>
+        <v>46.72586414708446</v>
       </c>
       <c r="N4">
-        <v>16.71026101229107</v>
+        <v>11.50962586254376</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.438395636854663</v>
+        <v>6.977502098026313</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.18607387443479</v>
+        <v>14.7925241333978</v>
       </c>
       <c r="E5">
-        <v>10.95583054637351</v>
+        <v>18.92969232103516</v>
       </c>
       <c r="F5">
-        <v>50.6460683884268</v>
+        <v>85.77627695228085</v>
       </c>
       <c r="G5">
-        <v>3.618308622659099</v>
+        <v>1.799819690307416</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.72088030593627</v>
+        <v>11.06327372856032</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>26.16990630958212</v>
+        <v>45.38690056152394</v>
       </c>
       <c r="N5">
-        <v>16.72446108416407</v>
+        <v>11.58350236181929</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.431675937607436</v>
+        <v>6.956241569123682</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.171216862872042</v>
+        <v>14.71257488450433</v>
       </c>
       <c r="E6">
-        <v>10.92856553836618</v>
+        <v>18.84512335559988</v>
       </c>
       <c r="F6">
-        <v>50.54396401280863</v>
+        <v>85.32705860909373</v>
       </c>
       <c r="G6">
-        <v>3.618882925933351</v>
+        <v>1.802559865429575</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.72664028076113</v>
+        <v>11.08740886361398</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>26.11524518040367</v>
+        <v>45.16611935406764</v>
       </c>
       <c r="N6">
-        <v>16.7268525437938</v>
+        <v>11.5955424938604</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.478225852629073</v>
+        <v>7.102167596106409</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.274396796252089</v>
+        <v>15.27296872169656</v>
       </c>
       <c r="E7">
-        <v>11.11636478766642</v>
+        <v>19.43723525995606</v>
       </c>
       <c r="F7">
-        <v>51.25135370721622</v>
+        <v>88.47470563317317</v>
       </c>
       <c r="G7">
-        <v>3.614926074485251</v>
+        <v>1.783206178300502</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.68698587075284</v>
+        <v>10.91819886110939</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.49336562457787</v>
+        <v>46.70768573722774</v>
       </c>
       <c r="N7">
-        <v>16.71045027302651</v>
+        <v>11.51063892483659</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.680972866910538</v>
+        <v>7.702902632844514</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.730082215000845</v>
+        <v>17.99516985586479</v>
       </c>
       <c r="E8">
-        <v>11.90854149275889</v>
+        <v>22.29963548703737</v>
       </c>
       <c r="F8">
-        <v>54.33304253429402</v>
+        <v>103.7075117851392</v>
       </c>
       <c r="G8">
-        <v>3.598186469094532</v>
+        <v>1.68428753238365</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.52002360390755</v>
+        <v>10.09926306607747</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>28.1265531251949</v>
+        <v>53.99280263754945</v>
       </c>
       <c r="N8">
-        <v>16.64291804967674</v>
+        <v>11.07923217918968</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.065511738474994</v>
+        <v>7.702902632844514</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.61626551228617</v>
+        <v>17.99516985586479</v>
       </c>
       <c r="E9">
-        <v>13.32582650945784</v>
+        <v>22.29963548703737</v>
       </c>
       <c r="F9">
-        <v>60.17500217303715</v>
+        <v>103.7075117851392</v>
       </c>
       <c r="G9">
-        <v>3.567877998032225</v>
+        <v>1.68428753238365</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.22099864204126</v>
+        <v>10.09926306607747</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>31.17367061725379</v>
+        <v>53.99280263754945</v>
       </c>
       <c r="N9">
-        <v>16.52762441166351</v>
+        <v>11.07923217918968</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.337259030961415</v>
+        <v>7.702902632844514</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.25610178676127</v>
+        <v>17.99516985586479</v>
       </c>
       <c r="E10">
-        <v>14.28128078406007</v>
+        <v>22.29963548703737</v>
       </c>
       <c r="F10">
-        <v>64.3029134886602</v>
+        <v>103.7075117851392</v>
       </c>
       <c r="G10">
-        <v>3.547072620772043</v>
+        <v>1.68428753238365</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.01817015192901</v>
+        <v>10.09926306607747</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>33.29757803383404</v>
+        <v>53.99280263754945</v>
       </c>
       <c r="N10">
-        <v>16.45309327540301</v>
+        <v>11.07923217918968</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.458011726469839</v>
+        <v>7.702902632844514</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.54357482548543</v>
+        <v>17.99516985586479</v>
       </c>
       <c r="E11">
-        <v>14.69697741251307</v>
+        <v>22.29963548703737</v>
       </c>
       <c r="F11">
-        <v>66.13848210952544</v>
+        <v>103.7075117851392</v>
       </c>
       <c r="G11">
-        <v>3.537908646372871</v>
+        <v>1.68428753238365</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.92946146060132</v>
+        <v>10.09926306607747</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>34.23570583817392</v>
+        <v>53.99280263754945</v>
       </c>
       <c r="N11">
-        <v>16.42133566478197</v>
+        <v>11.07923217918968</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.503285426557074</v>
+        <v>7.702902632844514</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.6518370514433</v>
+        <v>17.99516985586479</v>
       </c>
       <c r="E12">
-        <v>14.85165264538756</v>
+        <v>22.29963548703737</v>
       </c>
       <c r="F12">
-        <v>66.82705934091932</v>
+        <v>103.7075117851392</v>
       </c>
       <c r="G12">
-        <v>3.53448028867665</v>
+        <v>1.68428753238365</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.89637339110338</v>
+        <v>10.09926306607747</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>34.58671466592187</v>
+        <v>53.99280263754945</v>
       </c>
       <c r="N12">
-        <v>16.40961344819153</v>
+        <v>11.07923217918968</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.49355567061288</v>
+        <v>7.702902632844514</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.62854857802216</v>
+        <v>17.99516985586479</v>
       </c>
       <c r="E13">
-        <v>14.81846258690563</v>
+        <v>22.29963548703737</v>
       </c>
       <c r="F13">
-        <v>66.67905764249851</v>
+        <v>103.7075117851392</v>
       </c>
       <c r="G13">
-        <v>3.53521680846824</v>
+        <v>1.68428753238365</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.90347721100795</v>
+        <v>10.09926306607747</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>34.51131005237062</v>
+        <v>53.99280263754945</v>
       </c>
       <c r="N13">
-        <v>16.41212461216806</v>
+        <v>11.07923217918968</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.461745714754129</v>
+        <v>7.702902632844514</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.5524940197542</v>
+        <v>17.99516985586479</v>
       </c>
       <c r="E14">
-        <v>14.70975761021141</v>
+        <v>22.29963548703737</v>
       </c>
       <c r="F14">
-        <v>66.19526450496906</v>
+        <v>103.7075117851392</v>
       </c>
       <c r="G14">
-        <v>3.537625762846044</v>
+        <v>1.68428753238365</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.92672923018505</v>
+        <v>10.09926306607747</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>34.26466955410903</v>
+        <v>53.99280263754945</v>
       </c>
       <c r="N14">
-        <v>16.42036521381437</v>
+        <v>11.07923217918968</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.4422010935122</v>
+        <v>7.702902632844514</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.5058283944099</v>
+        <v>17.99516985586479</v>
       </c>
       <c r="E15">
-        <v>14.64281552262175</v>
+        <v>22.29963548703737</v>
       </c>
       <c r="F15">
-        <v>65.89806753878172</v>
+        <v>103.7075117851392</v>
       </c>
       <c r="G15">
-        <v>3.539106724103554</v>
+        <v>1.68428753238365</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.9410371612963</v>
+        <v>10.09926306607747</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>34.1130375563018</v>
+        <v>53.99280263754945</v>
       </c>
       <c r="N15">
-        <v>16.42545221870516</v>
+        <v>11.07923217918968</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.329306337525645</v>
+        <v>7.702902632844514</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.23723525120751</v>
+        <v>17.99516985586479</v>
       </c>
       <c r="E16">
-        <v>14.25373125157809</v>
+        <v>22.29963548703737</v>
       </c>
       <c r="F16">
-        <v>64.18206529375638</v>
+        <v>103.7075117851392</v>
       </c>
       <c r="G16">
-        <v>3.547677439044635</v>
+        <v>1.68428753238365</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.02403842971437</v>
+        <v>10.09926306607747</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>33.23568616359744</v>
+        <v>53.99280263754945</v>
       </c>
       <c r="N16">
-        <v>16.45521148662777</v>
+        <v>11.07923217918968</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.259284999942365</v>
+        <v>7.702902632844514</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.07148039565662</v>
+        <v>17.99516985586479</v>
       </c>
       <c r="E17">
-        <v>14.01017424411825</v>
+        <v>22.29963548703737</v>
       </c>
       <c r="F17">
-        <v>63.11819482938965</v>
+        <v>103.7075117851392</v>
       </c>
       <c r="G17">
-        <v>3.553011303348935</v>
+        <v>1.68428753238365</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.07586310484129</v>
+        <v>10.09926306607747</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>32.6901153013173</v>
+        <v>53.99280263754945</v>
       </c>
       <c r="N17">
-        <v>16.47401420232071</v>
+        <v>11.07923217918968</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.218742981528475</v>
+        <v>7.702902632844514</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.97580855055878</v>
+        <v>17.99516985586479</v>
       </c>
       <c r="E18">
-        <v>13.86830387868837</v>
+        <v>22.29963548703737</v>
       </c>
       <c r="F18">
-        <v>62.50232937052888</v>
+        <v>103.7075117851392</v>
       </c>
       <c r="G18">
-        <v>3.556107570696202</v>
+        <v>1.68428753238365</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.10600675966006</v>
+        <v>10.09926306607747</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>32.37368686341707</v>
+        <v>53.99280263754945</v>
       </c>
       <c r="N18">
-        <v>16.48503142212625</v>
+        <v>11.07923217918968</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.204971479393479</v>
+        <v>7.702902632844514</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.94336101609416</v>
+        <v>17.99516985586479</v>
       </c>
       <c r="E19">
-        <v>13.81996344868237</v>
+        <v>22.29963548703737</v>
       </c>
       <c r="F19">
-        <v>62.29314339223452</v>
+        <v>103.7075117851392</v>
       </c>
       <c r="G19">
-        <v>3.55716082690096</v>
+        <v>1.68428753238365</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.11627073404899</v>
+        <v>10.09926306607747</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>32.26610482034211</v>
+        <v>53.99280263754945</v>
       </c>
       <c r="N19">
-        <v>16.48879657536906</v>
+        <v>11.07923217918968</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.266766890134198</v>
+        <v>7.702902632844514</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.089160482255</v>
+        <v>17.99516985586479</v>
       </c>
       <c r="E20">
-        <v>14.03628596270044</v>
+        <v>22.29963548703737</v>
       </c>
       <c r="F20">
-        <v>63.23185847152678</v>
+        <v>103.7075117851392</v>
       </c>
       <c r="G20">
-        <v>3.552440577968235</v>
+        <v>1.68428753238365</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.07031161519268</v>
+        <v>10.09926306607747</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>32.74846612662574</v>
+        <v>53.99280263754945</v>
       </c>
       <c r="N20">
-        <v>16.47199170989357</v>
+        <v>11.07923217918968</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.471101663379328</v>
+        <v>7.702902632844514</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.57484988862825</v>
+        <v>17.99516985586479</v>
       </c>
       <c r="E21">
-        <v>14.74176134236517</v>
+        <v>22.29963548703737</v>
       </c>
       <c r="F21">
-        <v>66.33754610058227</v>
+        <v>103.7075117851392</v>
       </c>
       <c r="G21">
-        <v>3.536917070242279</v>
+        <v>1.68428753238365</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.91988593394156</v>
+        <v>10.09926306607747</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>34.33723035569775</v>
+        <v>53.99280263754945</v>
       </c>
       <c r="N21">
-        <v>16.41793654800123</v>
+        <v>11.07923217918968</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.601990927522116</v>
+        <v>7.702902632844514</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.8887641150229</v>
+        <v>17.99516985586479</v>
       </c>
       <c r="E22">
-        <v>15.18685803725799</v>
+        <v>22.29963548703737</v>
       </c>
       <c r="F22">
-        <v>68.32918712379639</v>
+        <v>103.7075117851392</v>
       </c>
       <c r="G22">
-        <v>3.527014757751439</v>
+        <v>1.68428753238365</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.82450785739352</v>
+        <v>10.09926306607747</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>35.35079925764579</v>
+        <v>53.99280263754945</v>
       </c>
       <c r="N22">
-        <v>16.38437610861151</v>
+        <v>11.07923217918968</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.532388368635984</v>
+        <v>7.702902632844514</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.72156705721774</v>
+        <v>17.99516985586479</v>
       </c>
       <c r="E23">
-        <v>14.9507659345565</v>
+        <v>22.29963548703737</v>
       </c>
       <c r="F23">
-        <v>67.2698204314552</v>
+        <v>103.7075117851392</v>
       </c>
       <c r="G23">
-        <v>3.532278024951452</v>
+        <v>1.68428753238365</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.87514713656668</v>
+        <v>10.09926306607747</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>34.81216360656551</v>
+        <v>53.99280263754945</v>
       </c>
       <c r="N23">
-        <v>16.40212791007716</v>
+        <v>11.07923217918968</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.263385214729968</v>
+        <v>7.702902632844514</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.08116848360901</v>
+        <v>17.99516985586479</v>
       </c>
       <c r="E24">
-        <v>14.0244866039149</v>
+        <v>22.29963548703737</v>
       </c>
       <c r="F24">
-        <v>63.18048428689018</v>
+        <v>103.7075117851392</v>
       </c>
       <c r="G24">
-        <v>3.552698510120899</v>
+        <v>1.68428753238365</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.07282035614775</v>
+        <v>10.09926306607747</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>32.72209433805004</v>
+        <v>53.99280263754945</v>
       </c>
       <c r="N24">
-        <v>16.47290543268505</v>
+        <v>11.07923217918968</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.963183941754723</v>
+        <v>7.702902632844514</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.37806542212703</v>
+        <v>17.99516985586479</v>
       </c>
       <c r="E25">
-        <v>12.95733476459189</v>
+        <v>22.29963548703737</v>
       </c>
       <c r="F25">
-        <v>58.62083300311858</v>
+        <v>103.7075117851392</v>
       </c>
       <c r="G25">
-        <v>3.57581503438299</v>
+        <v>1.68428753238365</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.2988985685924</v>
+        <v>10.09926306607747</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>30.36827004104536</v>
+        <v>53.99280263754945</v>
       </c>
       <c r="N25">
-        <v>16.55700742504304</v>
+        <v>11.07923217918968</v>
       </c>
       <c r="O25">
         <v>0</v>
